--- a/build/exe.win-amd64-3.7/Tabela/Palavras.xlsx
+++ b/build/exe.win-amd64-3.7/Tabela/Palavras.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\Hangman\Tabela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E722340D-14A8-466D-B7F5-79F4F57C25DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC57EAC5-3DD3-4569-9DF6-0B636003FD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="19275" windowWidth="12000" windowHeight="7470" xr2:uid="{6D89A9B4-7BFC-4B39-995B-C67252D4F359}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,53 +36,53 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>Palavra_secreta</t>
+  </si>
+  <si>
     <t>Tema</t>
   </si>
   <si>
-    <t>Mito</t>
-  </si>
-  <si>
-    <t>Palavra_secreta</t>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Carro de Luxo</t>
+  </si>
+  <si>
+    <t>Violao</t>
+  </si>
+  <si>
+    <t>Instrumento</t>
+  </si>
+  <si>
+    <t>Interativo</t>
+  </si>
+  <si>
+    <t>Jogo da forca é ?</t>
   </si>
   <si>
     <t>Importante</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ingles é ?</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Nome do Criador desse jogo?</t>
   </si>
   <si>
     <t>Python</t>
   </si>
   <si>
-    <t>Previsivel</t>
-  </si>
-  <si>
-    <t>Passiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayara é ? Mayara é ? </t>
-  </si>
-  <si>
-    <t>Gabriel é ? Gabriel é ?</t>
-  </si>
-  <si>
-    <t>Bolsonaro é ? Bolsonaro é ?</t>
-  </si>
-  <si>
-    <t>Ingles é ? Ingles é ?</t>
-  </si>
-  <si>
-    <t>Pedra no ? Pedra no ?</t>
-  </si>
-  <si>
-    <t>Esse jogo foi feito no ? Esse jogo foi feito no ?</t>
+    <t>Esse jogo foi feito no ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,7 +301,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -596,125 +599,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A748BFF1-D136-478D-B5D0-30872428BDBD}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="27" thickBot="1">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27" thickBot="1">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" thickBot="1">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="27" thickBot="1">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="6" spans="1:2" ht="27" thickBot="1">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="7" spans="1:2" ht="27" thickBot="1">
+      <c r="A7" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="27" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="27" thickBot="1">
       <c r="A9" s="9"/>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="27" thickBot="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="27" thickBot="1">
       <c r="A11" s="9"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="27" thickBot="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="27" thickBot="1">
       <c r="A13" s="9"/>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="27" thickBot="1">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="27" thickBot="1">
       <c r="A15" s="9"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="27" thickBot="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
